--- a/batch_effect_methods.xlsx
+++ b/batch_effect_methods.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunch\Desktop\Project\Batch-Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFDD02-BCF6-45F2-A3B5-0285746BC4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A857B1-D58D-4FA1-ADCD-F74B5D8E6CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="4125" windowWidth="21765" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
-    <sheet name="Reference" sheetId="2" r:id="rId2"/>
+    <sheet name="Figures" sheetId="3" r:id="rId2"/>
+    <sheet name="Reference" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
   <si>
     <t>Methods</t>
   </si>
@@ -247,9 +248,6 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s42003-023-04820-3</t>
-  </si>
-  <si>
-    <t>https://github.com/hayatlab/MASI/tree/main/tutorial</t>
   </si>
   <si>
     <t xml:space="preserve"> batch entropy mixing score</t>
@@ -397,20 +395,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CQR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Composite quantile regression approach to batch effect correction in microbiome data</t>
-  </si>
-  <si>
-    <t>https://www.frontiersin.org/journals/microbiology/articles/10.3389/fmicb.2025.1484183/full</t>
-  </si>
-  <si>
-    <t>https://github.com/JIWONNP/Composite-Quantile-Regerssion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/wbb121/Norm-Methods-Comparison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,19 +419,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/EvaYiwenWang/PLSDAbatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RUV-III-NB: normalization of single cell RNA-seq data</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://academic.oup.com/nar/article/50/16/e96/6618546</t>
   </si>
   <si>
     <t>https://github.com/limfuxing/ruvIIInb</t>
@@ -594,6 +571,57 @@
   <si>
     <t>https://www.bioconductor.org/packages/release/bioc/html/MBECS.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://academic.oup.com/nar/article/50/16/e96/6618546</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alignment_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLSDA-batch: a multivariate framework to correct for batch effects in microbiome data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>how well samples from different batches are mixed together after batch correction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/rmolbrich/MBECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/hayatlab/MASI/tree/main/tutorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Absolute counts</t>
   </si>
 </sst>
 </file>
@@ -624,18 +652,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -657,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,20 +690,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,11 +983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.25" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -985,7 +1004,7 @@
     <col min="11" max="16384" width="43.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,25 +1018,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1025,22 +1047,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1048,19 +1073,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1071,19 +1099,22 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,22 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1120,27 +1154,30 @@
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1149,19 +1186,22 @@
         <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1172,16 +1212,16 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -1189,8 +1229,11 @@
       <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -1198,168 +1241,157 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>154</v>
+      <c r="F9" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="K10" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="K13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>137</v>
+      <c r="K15" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1368,35 +1400,88 @@
     <hyperlink ref="D9" r:id="rId1" xr:uid="{83DB65DE-9962-4CC8-9A80-0120C52B09CE}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{CE173FFF-F114-44BE-9B7C-837991F639CA}"/>
     <hyperlink ref="C10" r:id="rId3" xr:uid="{35FEA175-4E29-4B17-A9E2-C8A8DE7CA21B}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{699EBD2E-92E1-499A-A019-767B4437E5BC}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{350554F8-4977-4F37-B8C7-7859E06E99F2}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{D14CD542-9A24-4055-B11B-F41DB0118F7E}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{CCE51C5C-2089-4313-8ED2-EF595EEB16AC}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{02D0F546-FE3E-4425-B732-4227EFFABF8E}"/>
-    <hyperlink ref="C13" r:id="rId9" xr:uid="{81879626-C0D2-44F2-A162-1106810857B7}"/>
-    <hyperlink ref="C14" r:id="rId10" xr:uid="{64FC8C5E-EFE1-42EC-B406-9838901B1A83}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{EA64F96D-C8DD-4CC3-8932-F523A4C11276}"/>
-    <hyperlink ref="D15" r:id="rId12" location="svd-based-method" xr:uid="{29682121-070F-4BB2-B40D-8CF4EE556168}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{92697A3E-A994-42B1-AA66-CCED83976185}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{4454B91C-AEEB-472B-BF63-623B3A1C2C59}"/>
-    <hyperlink ref="D16" r:id="rId15" location="svd-based-method" xr:uid="{BF21BB39-BE19-4A4D-81E4-BC92A720841F}"/>
-    <hyperlink ref="D2" r:id="rId16" xr:uid="{B13CCD1A-AFD6-4763-84E6-65B103D418CA}"/>
-    <hyperlink ref="D3" r:id="rId17" xr:uid="{5B91579D-566E-4DBC-A480-03FFF76B784A}"/>
-    <hyperlink ref="C3" r:id="rId18" xr:uid="{09EC0E6E-0C11-4DAE-98EC-5E020DA9B35E}"/>
-    <hyperlink ref="D4" r:id="rId19" xr:uid="{31A72935-3E68-42EE-8CBB-FBC2447CD6C6}"/>
-    <hyperlink ref="C9" r:id="rId20" xr:uid="{43143EC9-D565-48D4-9FC7-0D46F2FBC510}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{CD06CC33-563B-4025-AB95-66FB143D0E07}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{350554F8-4977-4F37-B8C7-7859E06E99F2}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{D14CD542-9A24-4055-B11B-F41DB0118F7E}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{CCE51C5C-2089-4313-8ED2-EF595EEB16AC}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{02D0F546-FE3E-4425-B732-4227EFFABF8E}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{81879626-C0D2-44F2-A162-1106810857B7}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{64FC8C5E-EFE1-42EC-B406-9838901B1A83}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{EA64F96D-C8DD-4CC3-8932-F523A4C11276}"/>
+    <hyperlink ref="D14" r:id="rId11" location="svd-based-method" xr:uid="{29682121-070F-4BB2-B40D-8CF4EE556168}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{92697A3E-A994-42B1-AA66-CCED83976185}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{4454B91C-AEEB-472B-BF63-623B3A1C2C59}"/>
+    <hyperlink ref="D15" r:id="rId14" location="svd-based-method" xr:uid="{BF21BB39-BE19-4A4D-81E4-BC92A720841F}"/>
+    <hyperlink ref="D2" r:id="rId15" xr:uid="{B13CCD1A-AFD6-4763-84E6-65B103D418CA}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{5B91579D-566E-4DBC-A480-03FFF76B784A}"/>
+    <hyperlink ref="C3" r:id="rId17" xr:uid="{09EC0E6E-0C11-4DAE-98EC-5E020DA9B35E}"/>
+    <hyperlink ref="D4" r:id="rId18" xr:uid="{31A72935-3E68-42EE-8CBB-FBC2447CD6C6}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{43143EC9-D565-48D4-9FC7-0D46F2FBC510}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{CD06CC33-563B-4025-AB95-66FB143D0E07}"/>
+    <hyperlink ref="C11" r:id="rId21" xr:uid="{00915B00-FB4A-4D32-B2E4-5C520BBF75FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ECCE5F-7FA9-4328-AFB0-63C54B2721A8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="27.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{A8E5D0A0-EED2-4224-8122-9E6DBB129EFF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0EBE53-B8D7-477F-81D2-1743610A6BB9}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1434,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -1451,13 +1536,13 @@
         <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1510,30 +1595,30 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,71 +1687,74 @@
       <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1679,6 +1767,8 @@
     <hyperlink ref="C2" r:id="rId5" xr:uid="{46FE004C-09C2-40B1-996F-17396D7CA371}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{FD1DE38B-AD6C-496E-8B94-2187D5F5CCC6}"/>
     <hyperlink ref="C17" r:id="rId7" xr:uid="{57716B5D-5031-42C1-BC38-D89B079A0745}"/>
+    <hyperlink ref="D17" r:id="rId8" xr:uid="{3DE148BB-BD8C-46D8-9796-24C7380CFEE9}"/>
+    <hyperlink ref="D13" r:id="rId9" xr:uid="{497F891F-6518-4136-8440-594A423D89D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/batch_effect_methods.xlsx
+++ b/batch_effect_methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunch\Desktop\Project\Batch-Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A857B1-D58D-4FA1-ADCD-F74B5D8E6CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536AE8C8-3287-415F-87BF-D42A3B66E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="170">
   <si>
     <t>Methods</t>
   </si>
@@ -376,10 +376,6 @@
   </si>
   <si>
     <t>Population structure discovery in meta-analyzed microbial communities and inflammatory bowel disease using MMUPHin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>feature_abd: relative abundances (TSS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -481,19 +477,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TSS+log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://github.com/BoYuan07/MetaDICT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Must have phenotype in metadata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,6 +606,37 @@
   </si>
   <si>
     <t>Absolute counts</t>
+  </si>
+  <si>
+    <t>Log scale</t>
+  </si>
+  <si>
+    <t>Log scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive counts or values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log scale (log-abundance or CLR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive values (relative abundances)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log-transformed proportions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,18 +667,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -679,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -690,17 +699,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -986,412 +1002,412 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K15" sqref="K15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.25" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.25" style="2"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="49.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="2"/>
-    <col min="6" max="6" width="33.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="33.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="43.25" style="1"/>
+    <col min="1" max="1" width="28.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="43.25" style="8"/>
+    <col min="3" max="3" width="14.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="49.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="8"/>
+    <col min="6" max="6" width="33.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="33.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="43.25" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>148</v>
+      <c r="F15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1433,38 +1449,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="27.625" style="6"/>
+    <col min="1" max="1" width="8" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="27.625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1481,7 +1497,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
@@ -1539,10 +1555,10 @@
         <v>95</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1595,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
@@ -1606,16 +1622,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>101</v>
@@ -1688,7 +1704,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>70</v>
@@ -1738,13 +1754,13 @@
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">

--- a/batch_effect_methods.xlsx
+++ b/batch_effect_methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunch\Desktop\Project\Batch-Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536AE8C8-3287-415F-87BF-D42A3B66E04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D133270-5369-407B-A6A1-57CDE052DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
   <si>
     <t>Methods</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Comparison of the effectiveness of different normalization methods for metagenomic cross-study phenotype prediction under heterogeneity</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41598-024-57670-2</t>
-  </si>
-  <si>
     <t>https://github.com/wdl2459/ConQuR</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Batch effects removal for microbiome data via conditional quantile regression</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41467-022-33071-9</t>
-  </si>
-  <si>
     <t>PCoA</t>
   </si>
   <si>
@@ -245,9 +239,6 @@
   </si>
   <si>
     <t>MASI enables fast model-free standardization and integration of single-cell transcriptomics data</t>
-  </si>
-  <si>
-    <t>https://www.nature.com/articles/s42003-023-04820-3</t>
   </si>
   <si>
     <t xml:space="preserve"> batch entropy mixing score</t>
@@ -627,15 +618,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Positive values (relative abundances)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Counts</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Log-transformed proportions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-022-33071-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s42003-023-04820-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -704,13 +699,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1001,413 +989,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.25" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="43.25" style="8"/>
-    <col min="3" max="3" width="14.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="49.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="43.25" style="8"/>
-    <col min="6" max="6" width="33.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.375" style="8" customWidth="1"/>
-    <col min="8" max="9" width="33.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="30.375" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="43.25" style="7"/>
+    <col min="1" max="1" width="28.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.25" style="2"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.25" style="2"/>
+    <col min="6" max="6" width="33.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="33.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="43.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>162</v>
+      <c r="F15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1434,6 +1422,7 @@
     <hyperlink ref="C9" r:id="rId19" xr:uid="{43143EC9-D565-48D4-9FC7-0D46F2FBC510}"/>
     <hyperlink ref="D10" r:id="rId20" xr:uid="{CD06CC33-563B-4025-AB95-66FB143D0E07}"/>
     <hyperlink ref="C11" r:id="rId21" xr:uid="{00915B00-FB4A-4D32-B2E4-5C520BBF75FB}"/>
+    <hyperlink ref="C5" r:id="rId22" xr:uid="{A8FD2E6D-2DB2-43CD-9FF0-BF25F0407BFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1457,30 +1446,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1496,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0EBE53-B8D7-477F-81D2-1743610A6BB9}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,33 +1504,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1549,228 +1538,228 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
+      <c r="C4" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1785,6 +1774,8 @@
     <hyperlink ref="C17" r:id="rId7" xr:uid="{57716B5D-5031-42C1-BC38-D89B079A0745}"/>
     <hyperlink ref="D17" r:id="rId8" xr:uid="{3DE148BB-BD8C-46D8-9796-24C7380CFEE9}"/>
     <hyperlink ref="D13" r:id="rId9" xr:uid="{497F891F-6518-4136-8440-594A423D89D4}"/>
+    <hyperlink ref="C4" r:id="rId10" xr:uid="{105D3D50-F46E-4FCC-BCB1-BE0838A1137E}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{D57286BC-347C-4936-AA62-4F398FA8AED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/batch_effect_methods.xlsx
+++ b/batch_effect_methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunch\Desktop\Project\Batch-Effect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D133270-5369-407B-A6A1-57CDE052DC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E40A717-6724-4C17-AB5E-3DDA1C56666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="167">
   <si>
     <t>Methods</t>
   </si>
@@ -67,9 +67,6 @@
     <t>pamr: Pam: Prediction Analysis for Microarrays</t>
   </si>
   <si>
-    <t>limma</t>
-  </si>
-  <si>
     <t>limma powers differential expression analyses for RNA-sequencing and microarray studies</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
   </si>
   <si>
     <t>PLSDA</t>
-  </si>
-  <si>
-    <t>PLSDA-batch: a multivariate framework to correct for batch effects in microbiome data</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/bib/bbac622</t>
   </si>
   <si>
     <t>PLSDA_batch(X, Y.trt, Y.bat, ncomp.trt, ncomp.bat, scale = TRUE)</t>
@@ -631,6 +622,14 @@
   </si>
   <si>
     <t>https://www.nature.com/articles/s42003-023-04820-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLSDA-batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limma</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E11" sqref="E11"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.25" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1022,25 +1021,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1051,22 +1050,22 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1077,325 +1076,325 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="F8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1423,6 +1422,7 @@
     <hyperlink ref="D10" r:id="rId20" xr:uid="{CD06CC33-563B-4025-AB95-66FB143D0E07}"/>
     <hyperlink ref="C11" r:id="rId21" xr:uid="{00915B00-FB4A-4D32-B2E4-5C520BBF75FB}"/>
     <hyperlink ref="C5" r:id="rId22" xr:uid="{A8FD2E6D-2DB2-43CD-9FF0-BF25F0407BFD}"/>
+    <hyperlink ref="C6" r:id="rId23" xr:uid="{DFB2939A-1CF6-407D-AF33-6189BCA1421D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1446,30 +1446,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0EBE53-B8D7-477F-81D2-1743610A6BB9}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1504,262 +1504,262 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
